--- a/C00KSI_0322/C00KSI_Gyak 6.xlsx
+++ b/C00KSI_0322/C00KSI_Gyak 6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feladat 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
   <si>
     <t>Érkezés</t>
   </si>
@@ -146,13 +146,31 @@
   </si>
   <si>
     <t>Váltás</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>8,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +181,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -411,11 +436,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -434,6 +469,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -452,16 +497,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -749,7 +796,7 @@
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="26"/>
+    <col min="8" max="8" width="9.140625" style="20"/>
     <col min="11" max="81" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1006,7 +1053,7 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="19"/>
       <c r="J2" t="s">
         <v>11</v>
       </c>
@@ -1050,13 +1097,13 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
@@ -1106,16 +1153,16 @@
       <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
       <c r="AI5" s="11"/>
@@ -1167,34 +1214,34 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="25"/>
-      <c r="BD6" s="25"/>
-      <c r="BE6" s="25"/>
-      <c r="BF6" s="25"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
       <c r="BG6" s="11"/>
       <c r="BH6" s="11"/>
       <c r="BI6" s="11"/>
@@ -1505,13 +1552,13 @@
       <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
@@ -1561,26 +1608,26 @@
       <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
       <c r="AS14" s="11"/>
@@ -1632,7 +1679,7 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="AF15" s="25"/>
+      <c r="AF15" s="19"/>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
@@ -1680,7 +1727,7 @@
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="22"/>
       <c r="K19">
         <v>0</v>
       </c>
@@ -1913,7 +1960,7 @@
       <c r="G20" s="6">
         <v>20</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="22"/>
       <c r="J20" t="s">
         <v>11</v>
       </c>
@@ -1928,63 +1975,63 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="10"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="26"/>
-      <c r="BD20" s="26"/>
-      <c r="BE20" s="26"/>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="26"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
-      <c r="BL20" s="26"/>
-      <c r="BM20" s="26"/>
-      <c r="BN20" s="26"/>
-      <c r="BO20" s="26"/>
-      <c r="BP20" s="26"/>
-      <c r="BQ20" s="26"/>
-      <c r="BR20" s="26"/>
-      <c r="BS20" s="26"/>
-      <c r="BT20" s="26"/>
-      <c r="BU20" s="26"/>
-      <c r="BV20" s="26"/>
-      <c r="BW20" s="26"/>
-      <c r="BX20" s="26"/>
-      <c r="BY20" s="26"/>
-      <c r="BZ20" s="26"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="20"/>
+      <c r="BM20" s="20"/>
+      <c r="BN20" s="20"/>
+      <c r="BO20" s="20"/>
+      <c r="BP20" s="20"/>
+      <c r="BQ20" s="20"/>
+      <c r="BR20" s="20"/>
+      <c r="BS20" s="20"/>
+      <c r="BT20" s="20"/>
+      <c r="BU20" s="20"/>
+      <c r="BV20" s="20"/>
+      <c r="BW20" s="20"/>
+      <c r="BX20" s="20"/>
+      <c r="BY20" s="20"/>
+      <c r="BZ20" s="20"/>
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2008,20 +2055,20 @@
       <c r="G21" s="6">
         <v>16</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="22"/>
       <c r="J21" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -2030,45 +2077,45 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="10"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="26"/>
-      <c r="BM21" s="26"/>
-      <c r="BN21" s="26"/>
-      <c r="BO21" s="26"/>
-      <c r="BP21" s="26"/>
-      <c r="BQ21" s="26"/>
-      <c r="BR21" s="26"/>
-      <c r="BS21" s="26"/>
-      <c r="BT21" s="26"/>
-      <c r="BU21" s="26"/>
-      <c r="BV21" s="26"/>
-      <c r="BW21" s="26"/>
-      <c r="BX21" s="26"/>
-      <c r="BY21" s="26"/>
-      <c r="BZ21" s="26"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="20"/>
+      <c r="BM21" s="20"/>
+      <c r="BN21" s="20"/>
+      <c r="BO21" s="20"/>
+      <c r="BP21" s="20"/>
+      <c r="BQ21" s="20"/>
+      <c r="BR21" s="20"/>
+      <c r="BS21" s="20"/>
+      <c r="BT21" s="20"/>
+      <c r="BU21" s="20"/>
+      <c r="BV21" s="20"/>
+      <c r="BW21" s="20"/>
+      <c r="BX21" s="20"/>
+      <c r="BY21" s="20"/>
+      <c r="BZ21" s="20"/>
     </row>
     <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -2092,75 +2139,75 @@
       <c r="G22" s="6">
         <v>42</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
-      <c r="BL22" s="26"/>
-      <c r="BM22" s="26"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="26"/>
-      <c r="BQ22" s="26"/>
-      <c r="BR22" s="26"/>
-      <c r="BS22" s="26"/>
-      <c r="BT22" s="26"/>
-      <c r="BU22" s="26"/>
-      <c r="BV22" s="26"/>
-      <c r="BW22" s="26"/>
-      <c r="BX22" s="26"/>
-      <c r="BY22" s="26"/>
-      <c r="BZ22" s="26"/>
+      <c r="H22" s="22"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="20"/>
+      <c r="BM22" s="20"/>
+      <c r="BN22" s="20"/>
+      <c r="BO22" s="20"/>
+      <c r="BP22" s="20"/>
+      <c r="BQ22" s="20"/>
+      <c r="BR22" s="20"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="20"/>
+      <c r="BU22" s="20"/>
+      <c r="BV22" s="20"/>
+      <c r="BW22" s="20"/>
+      <c r="BX22" s="20"/>
+      <c r="BY22" s="20"/>
+      <c r="BZ22" s="20"/>
     </row>
     <row r="23" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -2188,32 +2235,32 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="22"/>
       <c r="J23" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
@@ -2225,15 +2272,15 @@
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="10"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="25"/>
-      <c r="AY23" s="25"/>
-      <c r="AZ23" s="25"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
       <c r="BA23" s="11"/>
       <c r="BB23" s="11"/>
       <c r="BC23" s="11"/>
@@ -2251,15 +2298,15 @@
       <c r="BO23" s="11"/>
       <c r="BP23" s="11"/>
       <c r="BQ23" s="11"/>
-      <c r="BR23" s="26"/>
-      <c r="BS23" s="26"/>
-      <c r="BT23" s="26"/>
-      <c r="BU23" s="26"/>
-      <c r="BV23" s="26"/>
-      <c r="BW23" s="26"/>
-      <c r="BX23" s="26"/>
-      <c r="BY23" s="26"/>
-      <c r="BZ23" s="26"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
     </row>
     <row r="24" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -2289,42 +2336,42 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="22"/>
       <c r="J24" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
       <c r="AQ24" s="11"/>
       <c r="AR24" s="11"/>
       <c r="AS24" s="11"/>
@@ -2336,31 +2383,31 @@
       <c r="AY24" s="11"/>
       <c r="AZ24" s="11"/>
       <c r="BA24" s="10"/>
-      <c r="BB24" s="26"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="26"/>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="26"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="26"/>
-      <c r="BL24" s="26"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
-      <c r="BP24" s="26"/>
-      <c r="BQ24" s="26"/>
-      <c r="BR24" s="26"/>
-      <c r="BS24" s="26"/>
-      <c r="BT24" s="26"/>
-      <c r="BU24" s="26"/>
-      <c r="BV24" s="26"/>
-      <c r="BW24" s="26"/>
-      <c r="BX24" s="26"/>
-      <c r="BY24" s="26"/>
-      <c r="BZ24" s="26"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="20"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="20"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="BZ24" s="20"/>
     </row>
     <row r="25" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -2375,7 +2422,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2666,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2973,7 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="19"/>
       <c r="J2" t="s">
         <v>11</v>
       </c>
@@ -2940,13 +2987,13 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
@@ -2976,9 +3023,9 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
@@ -3029,17 +3076,17 @@
       <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
@@ -3051,15 +3098,15 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
       <c r="AP5" s="10"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
       <c r="AZ5" s="11"/>
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
@@ -3105,18 +3152,18 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="11"/>
       <c r="AR6" s="11"/>
@@ -3133,13 +3180,13 @@
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="24">
         <f>AVERAGE(B5:E5)</f>
         <v>28</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" t="s">
         <v>25</v>
       </c>
@@ -3148,112 +3195,191 @@
       <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="27">
         <f>AVERAGE(B6:E6)</f>
         <v>11</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
       <c r="F8" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="O9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>8</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="N11" s="30">
+        <v>14</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="30">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="30">
+        <v>36</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="30">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="I12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="I12" s="20"/>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="33">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>22</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="I13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>11</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="I14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="I14" s="20"/>
+      <c r="O14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="33">
+        <v>6</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>57</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="I15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>22</v>
       </c>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="23"/>
+      <c r="H16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="23"/>
+      <c r="H19" s="31">
+        <f>H16/H17</f>
+        <v>0.99125364431486884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>8</v>
       </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>3</v>
       </c>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>21</v>
       </c>
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>12</v>
       </c>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3264,7 +3390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3275,7 +3401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3286,7 +3412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +3423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3327,16 +3453,11 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
@@ -3344,6 +3465,11 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
